--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="-20" windowWidth="16740" windowHeight="17460" tabRatio="848" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2420" yWindow="7660" windowWidth="16740" windowHeight="17460" tabRatio="848" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="187">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -613,6 +613,9 @@
   </si>
   <si>
     <t>Waiting til the last minute to meet</t>
+  </si>
+  <si>
+    <t>A lot</t>
   </si>
 </sst>
 </file>
@@ -883,11 +886,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2082593736"/>
-        <c:axId val="2082590648"/>
+        <c:axId val="2066914776"/>
+        <c:axId val="2065901992"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2082593736"/>
+        <c:axId val="2066914776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,14 +900,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082590648"/>
+        <c:crossAx val="2065901992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2082590648"/>
+        <c:axId val="2065901992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -915,7 +918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082593736"/>
+        <c:crossAx val="2066914776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1382,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1592,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1633,8 +1636,8 @@
       <c r="B2">
         <v>16</v>
       </c>
-      <c r="D2">
-        <v>0</v>
+      <c r="D2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -1,28 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="true"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="819" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="14400" windowHeight="17460" tabRatio="819" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Team" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Backlog" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Burndown" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Sprint1" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Sprint2" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Sprint3" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Sprint4" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Stories" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Team" sheetId="1" r:id="rId1"/>
+    <sheet name="Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Burndown" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint4" sheetId="7" r:id="rId7"/>
+    <sheet name="Stories" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
   <si>
     <t>Initials</t>
   </si>
@@ -207,9 +211,6 @@
     <t>Code Velocity</t>
   </si>
   <si>
-    <t>A lot</t>
-  </si>
-  <si>
     <t>Est Size</t>
   </si>
   <si>
@@ -550,19 +551,29 @@
   </si>
   <si>
     <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>the software doing what expected, all msgs displayed as correctly and delivered on time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to continue provide quality software in promised time frame (by sprint duration), make sure that all code deployed properly. </t>
+  </si>
+  <si>
+    <t>need to avoid spending extra time for development; bug creation, so the testing time will be increased</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="M/D"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -570,29 +581,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Verdana"/>
@@ -600,15 +596,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -621,7 +617,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -629,93 +625,43 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="2" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -774,34 +720,45 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
   <c:lang val="en-US"/>
+  <c:roundedCorners val="1"/>
+  <c:style val="18"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4a7ebb"/>
-            </a:solidFill>
             <a:ln w="28440">
               <a:solidFill>
-                <a:srgbClr val="4a7ebb"/>
+                <a:srgbClr val="4A7EBB"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
           </c:spPr>
           <c:marker>
+            <c:symbol val="diamond"/>
             <c:size val="4"/>
           </c:marker>
           <c:dLbls>
@@ -810,32 +767,23 @@
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Burndown!$A$2:$A$7</c:f>
-              <c:strCache>
+              <c:numCache>
+                <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2/8</c:v>
+                  <c:v>40946.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>40966.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -844,38 +792,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v/>
+                  <c:v>12.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="1"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="51993837"/>
-        <c:axId val="90719338"/>
+        <c:smooth val="0"/>
+        <c:axId val="2070634520"/>
+        <c:axId val="2128167592"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="51993837"/>
+      <c:dateAx>
+        <c:axId val="2070634520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -887,14 +834,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="90719338"/>
+        <c:crossAx val="2128167592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="90719338"/>
+        <c:axId val="2128167592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,6 +857,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -921,12 +869,13 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51993837"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2070634520"/>
+        <c:crossesAt val="0.0"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
-          <a:srgbClr val="ffffff"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:noFill/>
@@ -934,6 +883,8 @@
       </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -941,11 +892,16 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -959,14 +915,14 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>16200</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="975240" y="1472400"/>
-        <a:ext cx="4816080" cy="2671200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -979,26 +935,337 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="6.42410714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57589285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.5669642857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6383928571429"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,85 +1282,74 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5">
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" display="zdonato@stevens.edu"/>
-    <hyperlink ref="D4" r:id="rId2" display="dgrishin@stevens.edu"/>
+    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D4" r:id="rId2"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="5.14285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.70982142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.70982142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6383928571429"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -1110,204 +1366,196 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:5" ht="39">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="E2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="39">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="E3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+    <row r="5" spans="1:5">
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:5">
+      <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="E6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
+      <c r="E7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+    <row r="9" spans="1:5">
+      <c r="B9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
+    <row r="11" spans="1:5">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:5">
+      <c r="B12" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+    <row r="13" spans="1:5">
+      <c r="B13" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+    <row r="14" spans="1:5">
+      <c r="B14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+    <row r="15" spans="1:5">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="4" width="10.7098214285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.7098214285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5669642857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.14285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="12.5669642857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.6383928571429"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="6" max="6" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:6" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>55</v>
       </c>
@@ -1327,55 +1575,64 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4">
         <v>40946</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>16</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>61</v>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="4">
+        <v>40966</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>285</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.70982142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="24.5669642857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.70982142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.6383928571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.42410714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="6.70982142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.70982142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="4" width="10.7098214285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.6383928571429"/>
+    <col min="2" max="2" width="8.7109375" style="3"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1389,170 +1646,173 @@
         <v>21</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="39">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="0"/>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="I2"/>
+    </row>
+    <row r="3" spans="1:9" ht="39">
+      <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="I3"/>
+    </row>
+    <row r="4" spans="1:9" ht="39">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="I4"/>
+    </row>
+    <row r="5" spans="1:9" ht="39">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5"/>
+    </row>
+    <row r="14" spans="1:9" ht="26">
+      <c r="B14" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="8" t="s">
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" ht="156">
+      <c r="B15" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="26">
+      <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="8" t="s">
+    </row>
+    <row r="17" spans="2:2" ht="39">
+      <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3" t="s">
+    <row r="18" spans="2:2" ht="39">
+      <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:2" ht="208">
+      <c r="B19" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0"/>
-    </row>
-    <row r="20" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="8" t="s">
+    <row r="21" spans="2:2" ht="52">
+      <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="26" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="3" t="s">
-        <v>77</v>
+    <row r="22" spans="2:2" ht="169">
+      <c r="B22" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1566,49 +1826,43 @@
         <v>21</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1622,49 +1876,43 @@
         <v>21</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6383928571429"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1678,52 +1926,46 @@
         <v>21</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6383928571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5669642857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="49.4196428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6383928571429"/>
+    <col min="3" max="3" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="39">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1731,478 +1973,478 @@
         <v>19</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="255">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="11" t="s">
+    <row r="3" spans="1:3" ht="165">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11" t="s">
+    <row r="4" spans="1:3" ht="150">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="11" t="s">
+    <row r="5" spans="1:3" ht="300">
+      <c r="A5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="11" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="195">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
+    <row r="7" spans="1:3" ht="180">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="11" t="s">
+    <row r="8" spans="1:3" ht="409">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="11" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="240">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
+    <row r="10" spans="1:3" ht="300">
+      <c r="A10" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="B10" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="11" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="210">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11" t="s">
+    <row r="12" spans="1:3" ht="210">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="11" t="s">
+    <row r="13" spans="1:3" ht="405">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="11" t="s">
+    <row r="14" spans="1:3" ht="285">
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="C14" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="11" t="s">
+    </row>
+    <row r="15" spans="1:3" ht="180">
+      <c r="A15" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="B15" t="s">
         <v>98</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="C15" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="11" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="180">
+      <c r="A16" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="C16" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="11" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="210">
+      <c r="A17" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="11" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="165">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="C18" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C18" s="11" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="120">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="11" t="s">
+    <row r="20" spans="1:3" ht="135">
+      <c r="A20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C20" s="11" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="195">
+      <c r="A21" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="B21" t="s">
         <v>112</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C21" s="11" t="s">
+    </row>
+    <row r="22" spans="1:3" ht="255">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="11" t="s">
+    <row r="23" spans="1:3" ht="225">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="11" t="s">
+    <row r="24" spans="1:3" ht="315">
+      <c r="A24" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="11" t="s">
+    </row>
+    <row r="25" spans="1:3" ht="390">
+      <c r="A25" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B25" t="s">
         <v>120</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="11" t="s">
+    </row>
+    <row r="26" spans="1:3" ht="285">
+      <c r="A26" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B26" t="s">
         <v>123</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="11" t="s">
+    </row>
+    <row r="27" spans="1:3" ht="409">
+      <c r="A27" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" t="s">
         <v>126</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C27" s="11" t="s">
+    </row>
+    <row r="28" spans="1:3" ht="180">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="11" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="90">
+      <c r="A29" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" t="s">
         <v>131</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="150">
+      <c r="A30" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B30" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C30" s="11" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="150">
+      <c r="A31" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="C31" s="11" t="s">
+    </row>
+    <row r="32" spans="1:3" ht="255">
+      <c r="A32" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="11" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="135">
+      <c r="A33" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" t="s">
         <v>143</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C33" s="11" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="285">
+      <c r="A34" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" t="s">
         <v>146</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C34" s="11" t="s">
+    </row>
+    <row r="35" spans="1:3" ht="330">
+      <c r="A35" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="11" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="210">
+      <c r="A36" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B36" t="s">
         <v>152</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C36" s="11" t="s">
+    </row>
+    <row r="37" spans="1:3" ht="195">
+      <c r="A37" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" t="s">
         <v>155</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="11" t="s">
+    </row>
+    <row r="38" spans="1:3" ht="300">
+      <c r="A38" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C38" s="11" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="255">
+      <c r="A39" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="11" t="s">
+    </row>
+    <row r="40" spans="1:3" ht="315">
+      <c r="A40" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B40" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="11" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="210">
+      <c r="A41" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B41" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="11" t="s">
+    </row>
+    <row r="42" spans="1:3" ht="225">
+      <c r="A42" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" t="s">
         <v>170</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="315">
+      <c r="A43" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>175</v>
-      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="14400" windowHeight="17460" tabRatio="819" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="180">
   <si>
     <t>Initials</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>in progress</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -649,12 +652,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -812,11 +819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2070634520"/>
-        <c:axId val="2128167592"/>
+        <c:axId val="2107844488"/>
+        <c:axId val="2107841208"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2070634520"/>
+        <c:axId val="2107844488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,14 +841,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2128167592"/>
+        <c:crossAx val="2107841208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2128167592"/>
+        <c:axId val="2107841208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +876,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2070634520"/>
+        <c:crossAx val="2107844488"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1343,11 +1350,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -1407,6 +1417,12 @@
       <c r="C4" t="s">
         <v>28</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5" t="s">
@@ -1415,6 +1431,12 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
@@ -1457,6 +1479,12 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9" t="s">
@@ -1464,6 +1492,12 @@
       </c>
       <c r="C9" t="s">
         <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1545,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1752,7 +1786,7 @@
       <c r="I14"/>
     </row>
     <row r="15" spans="1:9" ht="156">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -1772,7 +1806,7 @@
       </c>
     </row>
     <row r="19" spans="2:2" ht="208">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -1787,7 +1821,7 @@
       </c>
     </row>
     <row r="22" spans="2:2" ht="169">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -1806,7 +1840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -1956,485 +1990,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="8.7109375" style="3"/>
+    <col min="1" max="2" width="8.7109375" style="15"/>
+    <col min="3" max="3" width="8.7109375" style="16"/>
+    <col min="4" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="39">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="14" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="255">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="165">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="300">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="12" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="195">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="180">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="240">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="300">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="210">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="210">
-      <c r="A12" t="s">
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="405">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="285">
-      <c r="A14" t="s">
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="180">
-      <c r="A15" t="s">
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="180">
-      <c r="A16" t="s">
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="210">
-      <c r="A17" t="s">
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="165">
-      <c r="A18" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="120">
-      <c r="A19" t="s">
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="135">
-      <c r="A20" t="s">
+    <row r="20" spans="1:3" ht="15">
+      <c r="A20" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="195">
-      <c r="A21" t="s">
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="255">
-      <c r="A22" t="s">
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="225">
-      <c r="A23" t="s">
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="315">
-      <c r="A24" t="s">
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="390">
-      <c r="A25" t="s">
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="285">
-      <c r="A26" t="s">
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="409">
-      <c r="A27" t="s">
+    <row r="27" spans="1:3" ht="15">
+      <c r="A27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="180">
-      <c r="A28" t="s">
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="90">
-      <c r="A29" t="s">
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="150">
-      <c r="A30" t="s">
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="150">
-      <c r="A31" t="s">
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="255">
-      <c r="A32" t="s">
+    <row r="32" spans="1:3" ht="15">
+      <c r="A32" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="135">
-      <c r="A33" t="s">
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="285">
-      <c r="A34" t="s">
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="330">
-      <c r="A35" t="s">
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="12" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="210">
-      <c r="A36" t="s">
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="12" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="195">
-      <c r="A37" t="s">
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="12" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="300">
-      <c r="A38" t="s">
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="255">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="12" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="315">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="12" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="210">
-      <c r="A41" t="s">
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="12" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="225">
-      <c r="A42" t="s">
+    <row r="42" spans="1:3" ht="15">
+      <c r="A42" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="12" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="315">
-      <c r="A43" t="s">
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="12" t="s">
         <v>174</v>
       </c>
     </row>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId7"/>
     <sheet name="Stories" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
   <si>
     <t>Initials</t>
   </si>
@@ -566,6 +566,27 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>60 LOC</t>
+  </si>
+  <si>
+    <t>25 Minutes</t>
+  </si>
+  <si>
+    <t>75 LOC</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>35 minutes</t>
+  </si>
+  <si>
+    <t>10 LOC</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -576,7 +597,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -610,6 +631,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -628,11 +657,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -662,8 +695,13 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -819,11 +857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2107844488"/>
-        <c:axId val="2107841208"/>
+        <c:axId val="-2121901896"/>
+        <c:axId val="-2121898568"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2107844488"/>
+        <c:axId val="-2121901896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,14 +879,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2107841208"/>
+        <c:crossAx val="-2121898568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2107841208"/>
+        <c:axId val="-2121898568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,7 +914,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2107844488"/>
+        <c:crossAx val="-2121901896"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1350,8 +1388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1566,7 +1604,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1580,7 +1618,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1634,7 +1672,7 @@
         <v>285</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>180</v>
       </c>
       <c r="F3" s="5">
         <v>30</v>
@@ -1657,7 +1695,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1714,7 +1752,15 @@
       <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="I2"/>
+      <c r="G2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="17">
+        <v>40967</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="39">
       <c r="A3" t="s">
@@ -1735,7 +1781,15 @@
       <c r="F3" t="s">
         <v>67</v>
       </c>
-      <c r="I3"/>
+      <c r="G3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="17">
+        <v>40967</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="39">
       <c r="A4" t="s">
@@ -1756,7 +1810,15 @@
       <c r="F4" t="s">
         <v>69</v>
       </c>
-      <c r="I4"/>
+      <c r="G4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I4" s="17">
+        <v>40967</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="39">
       <c r="A5" t="s">
@@ -1777,7 +1839,15 @@
       <c r="F5" t="s">
         <v>70</v>
       </c>
-      <c r="I5"/>
+      <c r="G5" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="17">
+        <v>40967</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="26">
       <c r="B14" s="8" t="s">
@@ -1838,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1875,9 +1945,89 @@
         <v>65</v>
       </c>
     </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="17475" windowHeight="7380" tabRatio="819" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,8 @@
     <sheet name="Sprint4" sheetId="7" r:id="rId7"/>
     <sheet name="Stories" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -592,12 +593,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -807,13 +808,7 @@
             <c:size val="4"/>
           </c:marker>
           <c:dLbls>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
-            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -822,10 +817,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40946.0</c:v>
+                  <c:v>40946</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40966.0</c:v>
+                  <c:v>40966</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,39 +832,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2121901896"/>
-        <c:axId val="-2121898568"/>
+        <c:axId val="54927744"/>
+        <c:axId val="54929280"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2121901896"/>
+        <c:axId val="54927744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -879,18 +863,17 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2121898568"/>
+        <c:crossAx val="54929280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2121898568"/>
+        <c:axId val="54929280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -903,8 +886,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -914,8 +895,8 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2121901896"/>
-        <c:crossesAt val="0.0"/>
+        <c:crossAx val="54927744"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -939,7 +920,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1301,14 +1282,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -1385,16 +1366,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="B8:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -1414,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39">
+    <row r="2" spans="1:5" ht="38.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1431,7 +1412,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39">
+    <row r="3" spans="1:5" ht="38.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1614,17 +1595,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="4"/>
-    <col min="6" max="6" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="8.75" style="4"/>
+    <col min="6" max="6" width="8.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -1691,20 +1672,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" style="3"/>
-    <col min="9" max="9" width="8.7109375" style="4"/>
+    <col min="2" max="2" width="8.75" style="3"/>
+    <col min="9" max="9" width="8.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1714,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="39">
+    <row r="2" spans="1:9" ht="38.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1762,7 +1743,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="39">
+    <row r="3" spans="1:9" ht="38.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1791,7 +1772,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="39">
+    <row r="4" spans="1:9" ht="38.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1820,7 +1801,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="39">
+    <row r="5" spans="1:9" ht="38.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1849,33 +1830,33 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="26">
+    <row r="14" spans="1:9" ht="25.5">
       <c r="B14" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" ht="156">
+    <row r="15" spans="1:9" ht="153">
       <c r="B15" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="26">
+    <row r="16" spans="1:9" ht="25.5">
       <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="39">
+    <row r="17" spans="2:2" ht="38.25">
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="39">
+    <row r="18" spans="2:2" ht="38.25">
       <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="208">
+    <row r="19" spans="2:2" ht="216.75">
       <c r="B19" s="11" t="s">
         <v>176</v>
       </c>
@@ -1885,12 +1866,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="52">
+    <row r="21" spans="2:2" ht="63.75">
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="169">
+    <row r="22" spans="2:2" ht="165.75">
       <c r="B22" s="11" t="s">
         <v>177</v>
       </c>
@@ -1907,16 +1888,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2037,16 +2021,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2087,16 +2071,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:9" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2137,18 +2121,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="8.7109375" style="15"/>
-    <col min="3" max="3" width="8.7109375" style="16"/>
-    <col min="4" max="16384" width="8.7109375" style="15"/>
+    <col min="1" max="2" width="8.75" style="15"/>
+    <col min="3" max="3" width="8.75" style="16"/>
+    <col min="4" max="16384" width="8.75" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1">
@@ -2162,7 +2146,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -2173,7 +2157,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="15.75">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2184,7 +2168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
+    <row r="4" spans="1:3" ht="15.75">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -2195,7 +2179,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15">
+    <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
@@ -2206,7 +2190,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15">
+    <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
@@ -2217,7 +2201,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
@@ -2228,7 +2212,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
+    <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
@@ -2239,7 +2223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -2250,7 +2234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
@@ -2261,7 +2245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
@@ -2272,7 +2256,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="15.75">
       <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
@@ -2283,7 +2267,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="15" t="s">
         <v>41</v>
       </c>
@@ -2294,7 +2278,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -2305,7 +2289,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
@@ -2316,7 +2300,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="15" t="s">
         <v>100</v>
       </c>
@@ -2327,7 +2311,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15">
+    <row r="17" spans="1:3" ht="15.75">
       <c r="A17" s="15" t="s">
         <v>103</v>
       </c>
@@ -2338,7 +2322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
@@ -2349,7 +2333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15.75">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -2360,7 +2344,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="15" t="s">
         <v>108</v>
       </c>
@@ -2371,7 +2355,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15">
+    <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="15" t="s">
         <v>111</v>
       </c>
@@ -2382,7 +2366,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
+    <row r="22" spans="1:3" ht="15.75">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -2393,7 +2377,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
+    <row r="23" spans="1:3" ht="15.75">
       <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
@@ -2404,7 +2388,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15">
+    <row r="24" spans="1:3" ht="15.75">
       <c r="A24" s="15" t="s">
         <v>116</v>
       </c>
@@ -2415,7 +2399,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
+    <row r="25" spans="1:3" ht="15.75">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
@@ -2426,7 +2410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
+    <row r="26" spans="1:3" ht="15.75">
       <c r="A26" s="15" t="s">
         <v>122</v>
       </c>
@@ -2437,7 +2421,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15">
+    <row r="27" spans="1:3" ht="15.75">
       <c r="A27" s="15" t="s">
         <v>125</v>
       </c>
@@ -2448,7 +2432,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="15.75">
       <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
@@ -2459,7 +2443,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15">
+    <row r="29" spans="1:3" ht="15.75">
       <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
@@ -2470,7 +2454,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="15.75">
       <c r="A30" s="15" t="s">
         <v>133</v>
       </c>
@@ -2481,7 +2465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="15.75">
       <c r="A31" s="15" t="s">
         <v>136</v>
       </c>
@@ -2492,7 +2476,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15">
+    <row r="32" spans="1:3" ht="15.75">
       <c r="A32" s="15" t="s">
         <v>139</v>
       </c>
@@ -2503,7 +2487,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15">
+    <row r="33" spans="1:3" ht="15.75">
       <c r="A33" s="15" t="s">
         <v>142</v>
       </c>
@@ -2514,7 +2498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15">
+    <row r="34" spans="1:3" ht="15.75">
       <c r="A34" s="15" t="s">
         <v>145</v>
       </c>
@@ -2525,7 +2509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15">
+    <row r="35" spans="1:3" ht="15.75">
       <c r="A35" s="15" t="s">
         <v>148</v>
       </c>
@@ -2536,7 +2520,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15">
+    <row r="36" spans="1:3" ht="15.75">
       <c r="A36" s="15" t="s">
         <v>151</v>
       </c>
@@ -2547,7 +2531,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15">
+    <row r="37" spans="1:3" ht="15.75">
       <c r="A37" s="15" t="s">
         <v>154</v>
       </c>
@@ -2558,7 +2542,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15">
+    <row r="38" spans="1:3" ht="15.75">
       <c r="A38" s="15" t="s">
         <v>157</v>
       </c>
@@ -2569,7 +2553,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15">
+    <row r="39" spans="1:3" ht="15.75">
       <c r="A39" s="15" t="s">
         <v>160</v>
       </c>
@@ -2580,7 +2564,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15">
+    <row r="40" spans="1:3" ht="15.75">
       <c r="A40" s="15" t="s">
         <v>163</v>
       </c>
@@ -2591,7 +2575,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15">
+    <row r="41" spans="1:3" ht="15.75">
       <c r="A41" s="15" t="s">
         <v>166</v>
       </c>
@@ -2602,7 +2586,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15">
+    <row r="42" spans="1:3" ht="15.75">
       <c r="A42" s="15" t="s">
         <v>169</v>
       </c>
@@ -2613,7 +2597,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15">
+    <row r="43" spans="1:3" ht="15.75">
       <c r="A43" s="15" t="s">
         <v>172</v>
       </c>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="17475" windowHeight="7380" tabRatio="819" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Stories" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -588,17 +587,20 @@
   </si>
   <si>
     <t>In progress</t>
+  </si>
+  <si>
+    <t>30 mins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -658,9 +660,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -698,11 +704,15 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="10">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -784,7 +794,14 @@
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="18"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -808,7 +825,13 @@
             <c:size val="4"/>
           </c:marker>
           <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
             <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
           </c:dLbls>
           <c:cat>
             <c:numRef>
@@ -817,10 +840,13 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40946</c:v>
+                  <c:v>40946.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40966</c:v>
+                  <c:v>40966.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40982.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,28 +858,42 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="54927744"/>
-        <c:axId val="54929280"/>
+        <c:smooth val="0"/>
+        <c:axId val="2105739752"/>
+        <c:axId val="2105736520"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="54927744"/>
+        <c:axId val="2105739752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="m/d" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -863,17 +903,18 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54929280"/>
+        <c:crossAx val="2105736520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="54929280"/>
+        <c:axId val="2105736520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -886,6 +927,8 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="9360">
@@ -895,8 +938,8 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="54927744"/>
-        <c:crossesAt val="0"/>
+        <c:crossAx val="2105739752"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -920,7 +963,7 @@
   </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75000000000000011" r="0.75000000000000011" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1282,14 +1325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
@@ -1366,16 +1409,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="B8:C9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1">
@@ -1395,7 +1438,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="39">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1412,7 +1455,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="38.25">
+    <row r="3" spans="1:5" ht="39">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1430,6 +1473,9 @@
       </c>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4">
+        <v>2</v>
+      </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
@@ -1440,10 +1486,13 @@
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5">
+        <v>2</v>
+      </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1454,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1492,6 +1541,9 @@
       </c>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8">
+        <v>2</v>
+      </c>
       <c r="B8" t="s">
         <v>35</v>
       </c>
@@ -1502,10 +1554,13 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
       <c r="B9" t="s">
         <v>37</v>
       </c>
@@ -1520,11 +1575,20 @@
       </c>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10">
+        <v>3</v>
+      </c>
       <c r="B10" t="s">
         <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1568,11 +1632,20 @@
       </c>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16">
+        <v>3</v>
+      </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="2:3">
@@ -1595,17 +1668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="4"/>
-    <col min="6" max="6" width="8.75" style="5"/>
+    <col min="1" max="1" width="8.7109375" style="4"/>
+    <col min="6" max="6" width="8.7109375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -1656,6 +1729,26 @@
         <v>180</v>
       </c>
       <c r="F3" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>40982</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>800</v>
+      </c>
+      <c r="E4">
+        <v>390</v>
+      </c>
+      <c r="F4" s="5">
         <v>30</v>
       </c>
     </row>
@@ -1672,20 +1765,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="3"/>
-    <col min="9" max="9" width="8.75" style="4"/>
+    <col min="2" max="2" width="8.7109375" style="3"/>
+    <col min="9" max="9" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1714,7 +1807,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="38.25">
+    <row r="2" spans="1:9" ht="39">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1743,7 +1836,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25">
+    <row r="3" spans="1:9" ht="39">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1865,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25">
+    <row r="4" spans="1:9" ht="39">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1894,7 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="38.25">
+    <row r="5" spans="1:9" ht="39">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1830,33 +1923,33 @@
         <v>40967</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25.5">
+    <row r="14" spans="1:9" ht="26">
       <c r="B14" s="8" t="s">
         <v>71</v>
       </c>
       <c r="I14"/>
     </row>
-    <row r="15" spans="1:9" ht="153">
+    <row r="15" spans="1:9" ht="156">
       <c r="B15" s="11" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25.5">
+    <row r="16" spans="1:9" ht="26">
       <c r="B16" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="38.25">
+    <row r="17" spans="2:2" ht="39">
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="38.25">
+    <row r="18" spans="2:2" ht="39">
       <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="216.75">
+    <row r="19" spans="2:2" ht="208">
       <c r="B19" s="11" t="s">
         <v>176</v>
       </c>
@@ -1866,19 +1959,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="63.75">
+    <row r="21" spans="2:2" ht="52">
       <c r="B21" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="165.75">
+    <row r="22" spans="2:2" ht="169">
       <c r="B22" s="11" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1888,19 +1981,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1940,13 +2033,22 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
       </c>
       <c r="F2" t="s">
         <v>183</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="17">
+        <v>40982</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1960,13 +2062,22 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E3" t="s">
         <v>66</v>
       </c>
       <c r="F3" t="s">
         <v>183</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="17">
+        <v>40982</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1980,13 +2091,22 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
       </c>
       <c r="F4" t="s">
         <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="17">
+        <v>40982</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2007,6 +2127,54 @@
       </c>
       <c r="F5" t="s">
         <v>183</v>
+      </c>
+      <c r="I5" s="17">
+        <v>40982</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="39">
+      <c r="B10" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="52">
+      <c r="B14" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="39">
+      <c r="B17" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2021,16 +2189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2071,16 +2239,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5">
+    <row r="1" spans="1:9" ht="26">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2121,18 +2289,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.75" style="15"/>
-    <col min="3" max="3" width="8.75" style="16"/>
-    <col min="4" max="16384" width="8.75" style="15"/>
+    <col min="1" max="2" width="8.7109375" style="15"/>
+    <col min="3" max="3" width="8.7109375" style="16"/>
+    <col min="4" max="16384" width="8.7109375" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="13" customFormat="1">
@@ -2146,7 +2314,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75">
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
@@ -2157,7 +2325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75">
+    <row r="3" spans="1:3" ht="15">
       <c r="A3" s="15" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2336,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75">
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="15" t="s">
         <v>22</v>
       </c>
@@ -2179,7 +2347,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="15" t="s">
         <v>81</v>
       </c>
@@ -2190,7 +2358,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75">
+    <row r="6" spans="1:3" ht="15">
       <c r="A6" s="15" t="s">
         <v>31</v>
       </c>
@@ -2201,7 +2369,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="15" t="s">
         <v>27</v>
       </c>
@@ -2212,7 +2380,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="15" t="s">
         <v>33</v>
       </c>
@@ -2223,7 +2391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75">
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
@@ -2234,7 +2402,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="15" t="s">
         <v>89</v>
       </c>
@@ -2245,7 +2413,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
@@ -2256,7 +2424,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
@@ -2267,7 +2435,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75">
+    <row r="13" spans="1:3" ht="15">
       <c r="A13" s="15" t="s">
         <v>41</v>
       </c>
@@ -2278,7 +2446,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75">
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="15" t="s">
         <v>43</v>
       </c>
@@ -2289,7 +2457,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75">
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="15" t="s">
         <v>97</v>
       </c>
@@ -2300,7 +2468,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75">
+    <row r="16" spans="1:3" ht="15">
       <c r="A16" s="15" t="s">
         <v>100</v>
       </c>
@@ -2311,7 +2479,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75">
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="15" t="s">
         <v>103</v>
       </c>
@@ -2322,7 +2490,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75">
+    <row r="18" spans="1:3" ht="15">
       <c r="A18" s="15" t="s">
         <v>45</v>
       </c>
@@ -2333,7 +2501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
@@ -2344,7 +2512,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="15" t="s">
         <v>108</v>
       </c>
@@ -2355,7 +2523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75">
+    <row r="21" spans="1:3" ht="15">
       <c r="A21" s="15" t="s">
         <v>111</v>
       </c>
@@ -2366,7 +2534,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
@@ -2377,7 +2545,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
@@ -2388,7 +2556,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75">
+    <row r="24" spans="1:3" ht="15">
       <c r="A24" s="15" t="s">
         <v>116</v>
       </c>
@@ -2399,7 +2567,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="15" t="s">
         <v>119</v>
       </c>
@@ -2410,7 +2578,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75">
+    <row r="26" spans="1:3" ht="15">
       <c r="A26" s="15" t="s">
         <v>122</v>
       </c>
@@ -2421,7 +2589,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75">
+    <row r="27" spans="1:3" ht="15">
       <c r="A27" s="15" t="s">
         <v>125</v>
       </c>
@@ -2432,7 +2600,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
@@ -2443,7 +2611,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75">
+    <row r="29" spans="1:3" ht="15">
       <c r="A29" s="15" t="s">
         <v>130</v>
       </c>
@@ -2454,7 +2622,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75">
+    <row r="30" spans="1:3" ht="15">
       <c r="A30" s="15" t="s">
         <v>133</v>
       </c>
@@ -2465,7 +2633,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75">
+    <row r="31" spans="1:3" ht="15">
       <c r="A31" s="15" t="s">
         <v>136</v>
       </c>
@@ -2476,7 +2644,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75">
+    <row r="32" spans="1:3" ht="15">
       <c r="A32" s="15" t="s">
         <v>139</v>
       </c>
@@ -2487,7 +2655,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75">
+    <row r="33" spans="1:3" ht="15">
       <c r="A33" s="15" t="s">
         <v>142</v>
       </c>
@@ -2498,7 +2666,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75">
+    <row r="34" spans="1:3" ht="15">
       <c r="A34" s="15" t="s">
         <v>145</v>
       </c>
@@ -2509,7 +2677,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75">
+    <row r="35" spans="1:3" ht="15">
       <c r="A35" s="15" t="s">
         <v>148</v>
       </c>
@@ -2520,7 +2688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75">
+    <row r="36" spans="1:3" ht="15">
       <c r="A36" s="15" t="s">
         <v>151</v>
       </c>
@@ -2531,7 +2699,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75">
+    <row r="37" spans="1:3" ht="15">
       <c r="A37" s="15" t="s">
         <v>154</v>
       </c>
@@ -2542,7 +2710,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75">
+    <row r="38" spans="1:3" ht="15">
       <c r="A38" s="15" t="s">
         <v>157</v>
       </c>
@@ -2553,7 +2721,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75">
+    <row r="39" spans="1:3" ht="15">
       <c r="A39" s="15" t="s">
         <v>160</v>
       </c>
@@ -2564,7 +2732,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75">
+    <row r="40" spans="1:3" ht="15">
       <c r="A40" s="15" t="s">
         <v>163</v>
       </c>
@@ -2575,7 +2743,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75">
+    <row r="41" spans="1:3" ht="15">
       <c r="A41" s="15" t="s">
         <v>166</v>
       </c>
@@ -2586,7 +2754,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75">
+    <row r="42" spans="1:3" ht="15">
       <c r="A42" s="15" t="s">
         <v>169</v>
       </c>
@@ -2597,7 +2765,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75">
+    <row r="43" spans="1:3" ht="15">
       <c r="A43" s="15" t="s">
         <v>172</v>
       </c>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -586,10 +586,10 @@
     <t>10 LOC</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t>30 mins</t>
+  </si>
+  <si>
+    <t>Unique ID's</t>
   </si>
 </sst>
 </file>
@@ -660,9 +660,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -704,7 +706,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -713,6 +715,8 @@
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -881,11 +885,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2105739752"/>
-        <c:axId val="2105736520"/>
+        <c:axId val="2100107768"/>
+        <c:axId val="2100111032"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2105739752"/>
+        <c:axId val="2100107768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,14 +907,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2105736520"/>
+        <c:crossAx val="2100111032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2105736520"/>
+        <c:axId val="2100111032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +942,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2105739752"/>
+        <c:crossAx val="2100107768"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,11 +1417,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C12" sqref="C10:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
+    <col min="3" max="3" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1438,7 +1443,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="39">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1455,7 +1460,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="39">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1571,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1592,19 +1597,37 @@
       </c>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11">
+        <v>3</v>
+      </c>
       <c r="B11" t="s">
         <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12">
+        <v>3</v>
+      </c>
       <c r="B12" t="s">
         <v>43</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1982,10 +2005,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2103,7 +2126,7 @@
         <v>68</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I4" s="17">
         <v>40982</v>
@@ -2120,13 +2143,19 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>66</v>
       </c>
       <c r="F5" t="s">
         <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>186</v>
       </c>
       <c r="I5" s="17">
         <v>40982</v>
@@ -2167,13 +2196,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="39">
-      <c r="B17" s="11" t="s">
+    <row r="16" spans="1:9" ht="39">
+      <c r="B16" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2190,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2225,6 +2249,86 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/Team03Report.xlsx
+++ b/Team03Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="28800" windowHeight="17460" tabRatio="819" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -660,9 +660,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -706,7 +714,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="20">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -717,6 +725,14 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -852,6 +868,9 @@
                 <c:pt idx="2">
                   <c:v>40982.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41013.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -870,6 +889,9 @@
                 <c:pt idx="2">
                   <c:v>8.0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -885,11 +907,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100107768"/>
-        <c:axId val="2100111032"/>
+        <c:axId val="2075784680"/>
+        <c:axId val="2048066344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="2100107768"/>
+        <c:axId val="2075784680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,14 +929,14 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2100111032"/>
+        <c:crossAx val="2048066344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="2100111032"/>
+        <c:axId val="2048066344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +964,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="2100107768"/>
+        <c:crossAx val="2075784680"/>
         <c:crossesAt val="0.0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1417,7 +1439,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C10:C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1593,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1610,7 +1632,7 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1627,31 +1649,58 @@
         <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13">
+        <v>4</v>
+      </c>
       <c r="B13" t="s">
         <v>45</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14">
+        <v>4</v>
+      </c>
       <c r="B14" t="s">
         <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15">
+        <v>4</v>
+      </c>
       <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1668,15 +1717,24 @@
         <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>4</v>
+      </c>
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -1692,10 +1750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -1772,6 +1830,26 @@
         <v>390</v>
       </c>
       <c r="F4" s="5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>41013</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>630</v>
+      </c>
+      <c r="F5" s="5">
         <v>30</v>
       </c>
     </row>
@@ -2007,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B9:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2214,15 +2292,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -2270,6 +2351,15 @@
       <c r="F2" t="s">
         <v>183</v>
       </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41003</v>
+      </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
@@ -2290,6 +2380,15 @@
       <c r="F3" t="s">
         <v>183</v>
       </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I3" s="17">
+        <v>41003</v>
+      </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -2310,6 +2409,15 @@
       <c r="F4" t="s">
         <v>183</v>
       </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I4" s="17">
+        <v>41003</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
@@ -2329,6 +2437,55 @@
       </c>
       <c r="F5" t="s">
         <v>183</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="17">
+        <v>41003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="39">
+      <c r="B9" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="B10" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="B12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="52">
+      <c r="B13" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="39">
+      <c r="B15" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2344,10 +2501,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -2379,6 +2536,86 @@
       </c>
       <c r="I1" s="9" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -2396,8 +2633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="13" x14ac:dyDescent="0"/>
